--- a/data/230918_Table_S1.xlsx
+++ b/data/230918_Table_S1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/peter_regier_pnnl_gov/Documents/Documents/GitHub/COMPASS-DOE/ec1_ghg_paper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{577E1CF3-2397-A647-B00A-24049FB26FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{577E1CF3-2397-A647-B00A-24049FB26FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77CC8B70-A874-044D-840A-8033C75E7D90}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="520" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="11820" yWindow="1120" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230623_Table_SA" sheetId="1" r:id="rId1"/>
@@ -46,75 +46,6 @@
     <t>Transect location</t>
   </si>
   <si>
-    <t>95.8±33.7</t>
-  </si>
-  <si>
-    <t>175±101</t>
-  </si>
-  <si>
-    <t>111±45.9</t>
-  </si>
-  <si>
-    <t>17.28±2.98</t>
-  </si>
-  <si>
-    <t>-0.015±0.023</t>
-  </si>
-  <si>
-    <t>-0.034±0.015</t>
-  </si>
-  <si>
-    <t>0.095±0.081</t>
-  </si>
-  <si>
-    <t>-0.052±0.014</t>
-  </si>
-  <si>
-    <t>-0.076±0.005</t>
-  </si>
-  <si>
-    <t>-0.058±0.003</t>
-  </si>
-  <si>
-    <t>0.032±0.015</t>
-  </si>
-  <si>
-    <t>0.006±0.003</t>
-  </si>
-  <si>
-    <t>0.004±0.002</t>
-  </si>
-  <si>
-    <t>0.016±0.007</t>
-  </si>
-  <si>
-    <t>0.109±0.060</t>
-  </si>
-  <si>
-    <t>0.001±0.000</t>
-  </si>
-  <si>
-    <t>1.66±0.126</t>
-  </si>
-  <si>
-    <t>27.39±2.38</t>
-  </si>
-  <si>
-    <t>22.90±3.15</t>
-  </si>
-  <si>
-    <t>31.5±4.36</t>
-  </si>
-  <si>
-    <t>39.9±6.14</t>
-  </si>
-  <si>
-    <t>8.96±1.76</t>
-  </si>
-  <si>
-    <t>73.4±63.4</t>
-  </si>
-  <si>
     <t>DO (µM/hr)</t>
   </si>
   <si>
@@ -125,12 +56,81 @@
   </si>
   <si>
     <t>N2O (µM/hr)</t>
+  </si>
+  <si>
+    <t>17.3 (5.31 - 40)</t>
+  </si>
+  <si>
+    <t>22.9 (8.22 - 49.2)</t>
+  </si>
+  <si>
+    <t>31.5 (10.3 - 53.3)</t>
+  </si>
+  <si>
+    <t>39.9 (11.2 - 81.3)</t>
+  </si>
+  <si>
+    <t>27.4 (5.31 - 81.3)</t>
+  </si>
+  <si>
+    <t>1.66 (1.25 - 3.51)</t>
+  </si>
+  <si>
+    <t>95.8 (2.16 - 1410)</t>
+  </si>
+  <si>
+    <t>175 (7.2 - 1410)</t>
+  </si>
+  <si>
+    <t>111 (6.82 - 452)</t>
+  </si>
+  <si>
+    <t>73.4 (3.73 - 770)</t>
+  </si>
+  <si>
+    <t>8.96 (2.16 - 23.9)</t>
+  </si>
+  <si>
+    <t>-0.0154 (-0.0956 - 0.992)</t>
+  </si>
+  <si>
+    <t>0.0318 (-0.000203 - 0.551)</t>
+  </si>
+  <si>
+    <t>-0.0345 (-0.0839 - 0.125)</t>
+  </si>
+  <si>
+    <t>0.0056 (-3.47e-05 - 0.0318)</t>
+  </si>
+  <si>
+    <t>0.0949 (-0.0713 - 0.992)</t>
+  </si>
+  <si>
+    <t>0.0038 (-6.77e-05 - 0.0242)</t>
+  </si>
+  <si>
+    <t>-0.0523 (-0.0863 - 0.0588)</t>
+  </si>
+  <si>
+    <t>0.0155 (-0.000203 - 0.0807)</t>
+  </si>
+  <si>
+    <t>-0.0757 (-0.0956 - -0.0442)</t>
+  </si>
+  <si>
+    <t>0.109 (-0.000161 - 0.551)</t>
+  </si>
+  <si>
+    <t>-0.0577 (-0.074 - -0.0179)</t>
+  </si>
+  <si>
+    <t>0.000807 (-0.000151 - 0.00315)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -637,21 +637,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1008,17 +1002,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
@@ -1026,16 +1023,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1043,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1060,16 +1057,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1077,16 +1074,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1094,16 +1091,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1111,34 +1108,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
